--- a/tm-driver/ix-evolution/src/main/resources/init/oob/environment.app.xlsx
+++ b/tm-driver/ix-evolution/src/main/resources/init/oob/environment.app.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/tm-api/tm-driver/ix-evolution/src/main/resources/init/oob/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85A2DD2-FD87-5044-B233-431ACDF79DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA4825B-31C7-F046-84FC-38F4A0CB7236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="63180" yWindow="-6220" windowWidth="46400" windowHeight="27220" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -149,15 +149,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "__type__":"FILE",
-    "__content__":{
-        "path":"cab/cn/extension/ambient/customer/corporation/UI.json"
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aceead4a-cdb1-4e63-9431-12d6e85d5d1f</t>
   </si>
   <si>
@@ -165,15 +156,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "__type__":"FILE",
-    "__content__":{
-        "path":"cab/cn/extension/ambient/customer/vendor/UI.json"
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26d57d49-95e5-4a14-9694-eb42dc332eca</t>
   </si>
   <si>
@@ -185,15 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "__type__":"FILE",
-    "__content__":{
-        "path":"cab/cn/extension/ambient/employee/regular/UI.json"
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>145ded2c-4763-42a0-b21b-f3685587b65d</t>
   </si>
   <si>
@@ -201,15 +174,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    "__type__":"FILE",
-    "__content__":{
-        "path":"cab/cn/extension/ambient/employee/third-part/UI.json"
-    }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/xc/ambient/customer/corporation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +207,22 @@
   </si>
   <si>
     <t>千里平台管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE:cab/cn/extension/ambient/customer/corporation/UI.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE:cab/cn/extension/ambient/customer/vendor/UI.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE:cab/cn/extension/ambient/employee/regular/UI.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FILE:cab/cn/extension/ambient/employee/third-part/UI.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,7 +795,7 @@
   <dimension ref="A4:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -933,7 +913,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>9</v>
@@ -942,19 +922,19 @@
         <v>6085</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>11</v>
@@ -1041,7 +1021,7 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:16" ht="132">
+    <row r="15" spans="1:16" ht="22">
       <c r="A15" s="24" t="s">
         <v>35</v>
       </c>
@@ -1052,10 +1032,10 @@
         <v>37</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="4"/>
@@ -1063,21 +1043,21 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:16" ht="132">
+    <row r="16" spans="1:16" ht="22">
       <c r="A16" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="4"/>
@@ -1085,21 +1065,21 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="132">
+    <row r="17" spans="1:13" ht="22">
       <c r="A17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>44</v>
-      </c>
       <c r="D17" s="25" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="4"/>
@@ -1107,21 +1087,21 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="132">
+    <row r="18" spans="1:13" ht="22">
       <c r="A18" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="4"/>
